--- a/data/outputs/OR/30.xlsx
+++ b/data/outputs/OR/30.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ220"/>
+  <dimension ref="A1:BR220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,6 +710,11 @@
       <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 68</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
         </is>
       </c>
     </row>
@@ -901,6 +906,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1102,6 +1108,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1319,6 +1326,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1528,6 +1536,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1737,6 +1746,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1934,6 +1944,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2139,6 +2150,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2356,6 +2368,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2569,6 +2582,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2766,6 +2780,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2975,6 +2990,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3176,6 +3192,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3373,6 +3390,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3586,6 +3604,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3795,6 +3814,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4000,6 +4020,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4217,6 +4238,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4430,6 +4452,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4639,6 +4662,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4852,6 +4876,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5053,6 +5078,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5274,6 +5300,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5471,6 +5498,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5672,6 +5700,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5877,6 +5906,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6094,6 +6124,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6303,6 +6334,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6520,6 +6552,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6733,6 +6766,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6950,6 +6984,11 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr">
+        <is>
+          <t>1756705</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7151,6 +7190,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7364,6 +7404,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7573,6 +7614,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7790,6 +7832,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7999,6 +8042,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8200,6 +8244,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8417,6 +8462,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8622,6 +8668,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8831,6 +8878,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9048,6 +9096,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9265,6 +9314,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9474,6 +9524,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9671,6 +9722,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9880,6 +9932,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10089,6 +10142,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10286,6 +10340,11 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>20037540</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10503,6 +10562,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10704,6 +10764,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10905,6 +10966,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11114,6 +11176,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11323,6 +11386,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11536,6 +11600,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11745,6 +11810,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11946,6 +12012,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12147,6 +12214,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12352,6 +12420,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12561,6 +12630,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12774,6 +12844,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12983,6 +13054,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13196,6 +13268,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13397,6 +13470,11 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr">
+        <is>
+          <t>2775433</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13598,6 +13676,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13807,6 +13886,11 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr">
+        <is>
+          <t>2591611</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14020,6 +14104,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14229,6 +14314,11 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr">
+        <is>
+          <t>2515277</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14438,6 +14528,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14647,6 +14738,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14856,6 +14948,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15073,6 +15166,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15290,6 +15384,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15491,6 +15586,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15708,6 +15804,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15909,6 +16006,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16122,6 +16220,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16339,6 +16438,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16548,6 +16648,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16749,6 +16850,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16962,6 +17064,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17179,6 +17282,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17396,6 +17500,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17605,6 +17710,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17806,6 +17912,11 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr">
+        <is>
+          <t>4418733</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18007,6 +18118,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18216,6 +18328,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18425,6 +18538,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18642,6 +18756,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18851,6 +18966,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19060,6 +19176,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19269,6 +19386,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19482,6 +19600,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19699,6 +19818,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19904,6 +20024,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20113,6 +20234,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20330,6 +20452,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20547,6 +20670,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20760,6 +20884,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20965,6 +21090,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21170,6 +21296,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21379,6 +21506,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21588,6 +21716,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21797,6 +21926,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22006,6 +22136,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22223,6 +22354,7 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22428,6 +22560,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22637,6 +22770,7 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22838,6 +22972,7 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23047,6 +23182,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23248,6 +23384,7 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23465,6 +23602,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23682,6 +23820,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -23891,6 +24030,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24108,6 +24248,11 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr">
+        <is>
+          <t>2331380</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24313,6 +24458,7 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24526,6 +24672,7 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -24743,6 +24890,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -24948,6 +25096,7 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25161,6 +25310,7 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25362,6 +25512,7 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -25571,6 +25722,7 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -25788,6 +25940,7 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -25997,6 +26150,7 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26210,6 +26364,7 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -26423,6 +26578,7 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -26640,6 +26796,7 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -26849,6 +27006,7 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -27058,6 +27216,7 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -27275,6 +27434,7 @@
         </is>
       </c>
       <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -27496,6 +27656,7 @@
         </is>
       </c>
       <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -27701,6 +27862,7 @@
         </is>
       </c>
       <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -27902,6 +28064,7 @@
         </is>
       </c>
       <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -28107,6 +28270,7 @@
         </is>
       </c>
       <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -28316,6 +28480,7 @@
         </is>
       </c>
       <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -28533,6 +28698,7 @@
         </is>
       </c>
       <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -28742,6 +28908,7 @@
         </is>
       </c>
       <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -28947,6 +29114,7 @@
         </is>
       </c>
       <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -29148,6 +29316,7 @@
         </is>
       </c>
       <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -29357,6 +29526,7 @@
         </is>
       </c>
       <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -29562,6 +29732,7 @@
         </is>
       </c>
       <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -29779,6 +29950,11 @@
         </is>
       </c>
       <c r="BQ140" t="inlineStr"/>
+      <c r="BR140" t="inlineStr">
+        <is>
+          <t>12256732</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -29984,6 +30160,7 @@
         </is>
       </c>
       <c r="BQ141" t="inlineStr"/>
+      <c r="BR141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -30193,6 +30370,7 @@
         </is>
       </c>
       <c r="BQ142" t="inlineStr"/>
+      <c r="BR142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -30406,6 +30584,7 @@
         </is>
       </c>
       <c r="BQ143" t="inlineStr"/>
+      <c r="BR143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -30619,6 +30798,7 @@
         </is>
       </c>
       <c r="BQ144" t="inlineStr"/>
+      <c r="BR144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -30820,6 +31000,7 @@
         </is>
       </c>
       <c r="BQ145" t="inlineStr"/>
+      <c r="BR145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -31021,6 +31202,7 @@
         </is>
       </c>
       <c r="BQ146" t="inlineStr"/>
+      <c r="BR146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -31230,6 +31412,7 @@
         </is>
       </c>
       <c r="BQ147" t="inlineStr"/>
+      <c r="BR147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -31439,6 +31622,7 @@
         </is>
       </c>
       <c r="BQ148" t="inlineStr"/>
+      <c r="BR148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -31656,6 +31840,7 @@
         </is>
       </c>
       <c r="BQ149" t="inlineStr"/>
+      <c r="BR149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -31861,6 +32046,7 @@
         </is>
       </c>
       <c r="BQ150" t="inlineStr"/>
+      <c r="BR150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -32070,6 +32256,7 @@
         </is>
       </c>
       <c r="BQ151" t="inlineStr"/>
+      <c r="BR151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -32283,6 +32470,7 @@
         </is>
       </c>
       <c r="BQ152" t="inlineStr"/>
+      <c r="BR152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -32500,6 +32688,7 @@
         </is>
       </c>
       <c r="BQ153" t="inlineStr"/>
+      <c r="BR153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -32709,6 +32898,7 @@
         </is>
       </c>
       <c r="BQ154" t="inlineStr"/>
+      <c r="BR154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -32918,6 +33108,7 @@
         </is>
       </c>
       <c r="BQ155" t="inlineStr"/>
+      <c r="BR155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -33119,6 +33310,7 @@
         </is>
       </c>
       <c r="BQ156" t="inlineStr"/>
+      <c r="BR156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -33205,7 +33397,7 @@
       </c>
       <c r="AA157" t="inlineStr">
         <is>
-          <t>Haeser, Gabriel/0000-0002-1195-3347; </t>
+          <t>Haeser, Gabriel/0000-0002-1195-3347;</t>
         </is>
       </c>
       <c r="AB157" t="inlineStr">
@@ -33336,6 +33528,7 @@
         </is>
       </c>
       <c r="BQ157" t="inlineStr"/>
+      <c r="BR157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -33545,6 +33738,7 @@
         </is>
       </c>
       <c r="BQ158" t="inlineStr"/>
+      <c r="BR158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -33762,6 +33956,7 @@
         </is>
       </c>
       <c r="BQ159" t="inlineStr"/>
+      <c r="BR159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -33971,6 +34166,7 @@
         </is>
       </c>
       <c r="BQ160" t="inlineStr"/>
+      <c r="BR160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -34057,7 +34253,7 @@
       </c>
       <c r="AA161" t="inlineStr">
         <is>
-          <t>Stebel, Jan/0000-0002-7999-6239; </t>
+          <t>Stebel, Jan/0000-0002-7999-6239;</t>
         </is>
       </c>
       <c r="AB161" t="inlineStr">
@@ -34192,6 +34388,7 @@
         </is>
       </c>
       <c r="BQ161" t="inlineStr"/>
+      <c r="BR161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -34405,6 +34602,7 @@
         </is>
       </c>
       <c r="BQ162" t="inlineStr"/>
+      <c r="BR162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -34622,6 +34820,7 @@
         </is>
       </c>
       <c r="BQ163" t="inlineStr"/>
+      <c r="BR163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -34831,6 +35030,7 @@
         </is>
       </c>
       <c r="BQ164" t="inlineStr"/>
+      <c r="BR164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -35016,6 +35216,7 @@
         </is>
       </c>
       <c r="BQ165" t="inlineStr"/>
+      <c r="BR165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -35249,6 +35450,7 @@
         </is>
       </c>
       <c r="BQ166" t="inlineStr"/>
+      <c r="BR166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -35478,6 +35680,7 @@
         </is>
       </c>
       <c r="BQ167" t="inlineStr"/>
+      <c r="BR167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -35695,6 +35898,7 @@
         </is>
       </c>
       <c r="BQ168" t="inlineStr"/>
+      <c r="BR168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -35920,6 +36124,7 @@
         </is>
       </c>
       <c r="BQ169" t="inlineStr"/>
+      <c r="BR169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -36153,6 +36358,7 @@
         </is>
       </c>
       <c r="BQ170" t="inlineStr"/>
+      <c r="BR170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -36378,6 +36584,7 @@
         </is>
       </c>
       <c r="BQ171" t="inlineStr"/>
+      <c r="BR171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -36611,6 +36818,7 @@
         </is>
       </c>
       <c r="BQ172" t="inlineStr"/>
+      <c r="BR172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -36844,6 +37052,11 @@
         </is>
       </c>
       <c r="BQ173" t="inlineStr"/>
+      <c r="BR173" t="inlineStr">
+        <is>
+          <t>2629289</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -37069,6 +37282,7 @@
         </is>
       </c>
       <c r="BQ174" t="inlineStr"/>
+      <c r="BR174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -37302,6 +37516,7 @@
         </is>
       </c>
       <c r="BQ175" t="inlineStr"/>
+      <c r="BR175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -37527,6 +37742,7 @@
         </is>
       </c>
       <c r="BQ176" t="inlineStr"/>
+      <c r="BR176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -37744,6 +37960,7 @@
         </is>
       </c>
       <c r="BQ177" t="inlineStr"/>
+      <c r="BR177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -37945,6 +38162,7 @@
         </is>
       </c>
       <c r="BQ178" t="inlineStr"/>
+      <c r="BR178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -38150,6 +38368,7 @@
         </is>
       </c>
       <c r="BQ179" t="inlineStr"/>
+      <c r="BR179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -38367,6 +38586,7 @@
         </is>
       </c>
       <c r="BQ180" t="inlineStr"/>
+      <c r="BR180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -38576,6 +38796,7 @@
         </is>
       </c>
       <c r="BQ181" t="inlineStr"/>
+      <c r="BR181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -38785,6 +39006,7 @@
         </is>
       </c>
       <c r="BQ182" t="inlineStr"/>
+      <c r="BR182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -39002,6 +39224,7 @@
         </is>
       </c>
       <c r="BQ183" t="inlineStr"/>
+      <c r="BR183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -39203,6 +39426,7 @@
         </is>
       </c>
       <c r="BQ184" t="inlineStr"/>
+      <c r="BR184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -39420,6 +39644,7 @@
         </is>
       </c>
       <c r="BQ185" t="inlineStr"/>
+      <c r="BR185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -39629,6 +39854,7 @@
         </is>
       </c>
       <c r="BQ186" t="inlineStr"/>
+      <c r="BR186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -39838,6 +40064,7 @@
         </is>
       </c>
       <c r="BQ187" t="inlineStr"/>
+      <c r="BR187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -40047,6 +40274,7 @@
         </is>
       </c>
       <c r="BQ188" t="inlineStr"/>
+      <c r="BR188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -40264,6 +40492,7 @@
         </is>
       </c>
       <c r="BQ189" t="inlineStr"/>
+      <c r="BR189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -40481,6 +40710,7 @@
         </is>
       </c>
       <c r="BQ190" t="inlineStr"/>
+      <c r="BR190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -40698,6 +40928,7 @@
         </is>
       </c>
       <c r="BQ191" t="inlineStr"/>
+      <c r="BR191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -40903,6 +41134,7 @@
         </is>
       </c>
       <c r="BQ192" t="inlineStr"/>
+      <c r="BR192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -41116,6 +41348,7 @@
         </is>
       </c>
       <c r="BQ193" t="inlineStr"/>
+      <c r="BR193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -41321,6 +41554,7 @@
         </is>
       </c>
       <c r="BQ194" t="inlineStr"/>
+      <c r="BR194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -41534,6 +41768,7 @@
         </is>
       </c>
       <c r="BQ195" t="inlineStr"/>
+      <c r="BR195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -41735,6 +41970,7 @@
         </is>
       </c>
       <c r="BQ196" t="inlineStr"/>
+      <c r="BR196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -41952,6 +42188,7 @@
         </is>
       </c>
       <c r="BQ197" t="inlineStr"/>
+      <c r="BR197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -42165,6 +42402,7 @@
         </is>
       </c>
       <c r="BQ198" t="inlineStr"/>
+      <c r="BR198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -42370,6 +42608,7 @@
         </is>
       </c>
       <c r="BQ199" t="inlineStr"/>
+      <c r="BR199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -42579,6 +42818,7 @@
         </is>
       </c>
       <c r="BQ200" t="inlineStr"/>
+      <c r="BR200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -42796,6 +43036,11 @@
         </is>
       </c>
       <c r="BQ201" t="inlineStr"/>
+      <c r="BR201" t="inlineStr">
+        <is>
+          <t>1785563</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -43009,6 +43254,7 @@
         </is>
       </c>
       <c r="BQ202" t="inlineStr"/>
+      <c r="BR202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -43226,6 +43472,7 @@
         </is>
       </c>
       <c r="BQ203" t="inlineStr"/>
+      <c r="BR203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -43435,6 +43682,7 @@
         </is>
       </c>
       <c r="BQ204" t="inlineStr"/>
+      <c r="BR204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -43652,6 +43900,7 @@
         </is>
       </c>
       <c r="BQ205" t="inlineStr"/>
+      <c r="BR205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -43861,6 +44110,7 @@
         </is>
       </c>
       <c r="BQ206" t="inlineStr"/>
+      <c r="BR206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -44078,6 +44328,7 @@
         </is>
       </c>
       <c r="BQ207" t="inlineStr"/>
+      <c r="BR207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -44287,6 +44538,7 @@
         </is>
       </c>
       <c r="BQ208" t="inlineStr"/>
+      <c r="BR208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -44373,7 +44625,7 @@
       </c>
       <c r="AA209" t="inlineStr">
         <is>
-          <t>Kheirfam, Behrouz/0000-0001-7928-2618; </t>
+          <t>Kheirfam, Behrouz/0000-0001-7928-2618;</t>
         </is>
       </c>
       <c r="AB209" t="inlineStr"/>
@@ -44496,6 +44748,7 @@
         </is>
       </c>
       <c r="BQ209" t="inlineStr"/>
+      <c r="BR209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -44705,6 +44958,7 @@
         </is>
       </c>
       <c r="BQ210" t="inlineStr"/>
+      <c r="BR210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -44914,6 +45168,7 @@
         </is>
       </c>
       <c r="BQ211" t="inlineStr"/>
+      <c r="BR211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -45123,6 +45378,7 @@
         </is>
       </c>
       <c r="BQ212" t="inlineStr"/>
+      <c r="BR212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -45340,6 +45596,7 @@
         </is>
       </c>
       <c r="BQ213" t="inlineStr"/>
+      <c r="BR213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -45541,6 +45798,7 @@
         </is>
       </c>
       <c r="BQ214" t="inlineStr"/>
+      <c r="BR214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -45742,6 +46000,7 @@
         </is>
       </c>
       <c r="BQ215" t="inlineStr"/>
+      <c r="BR215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -45931,6 +46190,11 @@
         </is>
       </c>
       <c r="BQ216" t="inlineStr"/>
+      <c r="BR216" t="inlineStr">
+        <is>
+          <t>2359627</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -46140,6 +46404,7 @@
         </is>
       </c>
       <c r="BQ217" t="inlineStr"/>
+      <c r="BR217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -46357,6 +46622,7 @@
         </is>
       </c>
       <c r="BQ218" t="inlineStr"/>
+      <c r="BR218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -46574,6 +46840,11 @@
         </is>
       </c>
       <c r="BQ219" t="inlineStr"/>
+      <c r="BR219" t="inlineStr">
+        <is>
+          <t>957904</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -46787,6 +47058,7 @@
         </is>
       </c>
       <c r="BQ220" t="inlineStr"/>
+      <c r="BR220" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
